--- a/target/classes/data/太吾尖塔.xlsx
+++ b/target/classes/data/太吾尖塔.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mod\Slay the Spire\TheScrollOfTaiwuTheSpire\src\main\resources\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317176F2-C520-422C-952A-6A580333646C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -82,7 +74,7 @@
     <t xml:space="preserve">              得到式的           种类1*数量1&amp;种类2*数量2</t>
   </si>
   <si>
-    <t>描述（占位符D,B,M,C1,C2分别表示攻击，格挡，技能,自定数据1,自定数据2）</t>
+    <t>描述（占位符D,B,M,C1,C2,NL分别表示攻击，格挡，技能,自定数据1,自定数据2,换行）</t>
   </si>
   <si>
     <t>伤害特效</t>
@@ -139,15 +131,36 @@
     <t>拿*1</t>
   </si>
   <si>
+    <t>小纵跃功</t>
+  </si>
+  <si>
+    <t>XiaoZongYueGong</t>
+  </si>
+  <si>
+    <t>TONGYONG</t>
+  </si>
+  <si>
+    <t>SKILL</t>
+  </si>
+  <si>
+    <t>RARE</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>移*1</t>
+  </si>
+  <si>
+    <t>获得 B 点格挡。</t>
+  </si>
+  <si>
     <t>大拙手</t>
   </si>
   <si>
     <t>DaZhuoShou</t>
   </si>
   <si>
-    <t>RARE</t>
-  </si>
-  <si>
     <t>崩*5</t>
   </si>
   <si>
@@ -169,28 +182,19 @@
     <t>WuHuaBaMeng</t>
   </si>
   <si>
-    <t>TONGYONG</t>
-  </si>
-  <si>
     <t>POWER</t>
   </si>
   <si>
     <t>UNCOMMON</t>
   </si>
   <si>
-    <t>SELF</t>
-  </si>
-  <si>
-    <t>当前每有一个不同的式，获得 M 点敏捷。 消耗。</t>
+    <t>当前每有一个不同的式，获得 M 点敏捷。 NL 消耗。</t>
   </si>
   <si>
     <t>心无定意</t>
   </si>
   <si>
     <t>XinWuDingYi</t>
-  </si>
-  <si>
-    <t>SKILL</t>
   </si>
   <si>
     <t>复制最近获得的式 M 次。</t>
@@ -463,27 +467,1329 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="264">
+    <font>
+      <sz val="11.0"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,7 +1797,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -504,107 +1810,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="360000" cy="533400"/>
-    <xdr:pic>
+    <xdr:ext cx="360000" cy="381000"/>
+    <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="attachment-1631169939534-e5b91541e745fb8d" descr="attachment-1631169939534-e5b91541e745fb8d">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="attachment-1631190020560-dd9d213092818080" descr="attachment-1631190020560-dd9d213092818080"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId1" r:link=""/>
         <a:srcRect/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="360000" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="attachment-1631190048398-416111b891f295e2" descr="attachment-1631190048398-416111b891f295e2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
+        <a:xfrm rot="0">
           <a:ext cx="360000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -619,31 +1862,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic>
+    <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="attachment-1631190035646-e14fc2ef71609b4b" descr="attachment-1631190035646-e14fc2ef71609b4b">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="attachment-1631192947879-92f2c94add253548" descr="attachment-1631192947879-92f2c94add253548"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId2" r:link=""/>
         <a:srcRect/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
+        <a:xfrm rot="0">
           <a:ext cx="360000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -658,31 +1894,56 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic>
+    <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="attachment-1631192947879-92f2c94add253548" descr="attachment-1631192947879-92f2c94add253548">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="attachment-1631192990352-3f414e449418e62f" descr="attachment-1631192990352-3f414e449418e62f"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId3" r:link=""/>
         <a:srcRect/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
+        <a:xfrm rot="0">
+          <a:ext cx="360000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360000" cy="381000"/>
+    <xdr:pic macro="">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="attachment-1631192963683-d029256278ba32e6" descr="attachment-1631192963683-d029256278ba32e6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4" r:link=""/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0">
           <a:ext cx="360000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -701,27 +1962,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic>
+    <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="attachment-1631190020560-dd9d213092818080" descr="attachment-1631190020560-dd9d213092818080">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="attachment-1631190008968-f93fee2d17dced3e" descr="attachment-1631190008968-f93fee2d17dced3e"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId5" r:link=""/>
         <a:srcRect/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
+        <a:xfrm rot="0">
           <a:ext cx="360000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -736,31 +1990,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic>
+    <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="attachment-1631190082848-0fae73a80935f328" descr="attachment-1631190082848-0fae73a80935f328">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="attachment-1631190064925-900f88ae6b4f5f8d" descr="attachment-1631190064925-900f88ae6b4f5f8d"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId6" r:link=""/>
         <a:srcRect/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
+        <a:xfrm rot="0">
           <a:ext cx="360000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -775,31 +2022,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic>
+    <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="attachment-1631190008968-f93fee2d17dced3e" descr="attachment-1631190008968-f93fee2d17dced3e">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="attachment-1631190082848-0fae73a80935f328" descr="attachment-1631190082848-0fae73a80935f328"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId7" r:link=""/>
         <a:srcRect/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
+        <a:xfrm rot="0">
           <a:ext cx="360000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -814,31 +2054,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic>
+    <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="attachment-1631190064925-900f88ae6b4f5f8d" descr="attachment-1631190064925-900f88ae6b4f5f8d">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="attachment-1631190035646-e14fc2ef71609b4b" descr="attachment-1631190035646-e14fc2ef71609b4b"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId8" r:link=""/>
         <a:srcRect/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
+        <a:xfrm rot="0">
           <a:ext cx="360000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -853,32 +2086,25 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic>
+    <xdr:ext cx="360000" cy="533400"/>
+    <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="attachment-1631192990352-3f414e449418e62f" descr="attachment-1631192990352-3f414e449418e62f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="attachment-1631169939534-e5b91541e745fb8d" descr="attachment-1631169939534-e5b91541e745fb8d"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId9" r:link=""/>
         <a:srcRect/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="360000" cy="381000"/>
+        <a:xfrm rot="0">
+          <a:ext cx="360000" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,31 +2118,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic>
+    <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="attachment-1631192963683-d029256278ba32e6" descr="attachment-1631192963683-d029256278ba32e6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="attachment-1631190048398-416111b891f295e2" descr="attachment-1631190048398-416111b891f295e2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId10" r:link=""/>
         <a:srcRect/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
+        <a:xfrm rot="0">
           <a:ext cx="360000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -930,340 +2149,61 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="8"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="9" width="8"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="14" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="8.25" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="11.75" customWidth="1"/>
-    <col min="18" max="18" width="9.625" customWidth="1"/>
-    <col min="19" max="19" width="11.75" customWidth="1"/>
-    <col min="20" max="20" width="19.25" customWidth="1"/>
-    <col min="21" max="21" width="34.375" customWidth="1"/>
-    <col min="22" max="22" width="8"/>
-    <col min="23" max="23" width="18.875" customWidth="1"/>
-    <col min="24" max="24" width="29.75" customWidth="1"/>
-    <col min="25" max="26" width="8"/>
-    <col min="27" max="27" width="14.75" customWidth="1"/>
-    <col min="28" max="42" width="8"/>
+    <col min="1" max="1" width="18.140625" hidden="false" customWidth="true"/>
+    <col min="2" max="2" width="17.140625" hidden="false" customWidth="true"/>
+    <col min="3" max="3" width="8.0" hidden="false" customWidth="false"/>
+    <col min="4" max="4" width="9.0" hidden="false" customWidth="true"/>
+    <col min="5" max="5" width="8.5703125" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="8.0" hidden="false" customWidth="false"/>
+    <col min="7" max="7" width="8.0" hidden="false" customWidth="false"/>
+    <col min="8" max="8" width="8.0" hidden="false" customWidth="false"/>
+    <col min="9" max="9" width="8.0" hidden="false" customWidth="false"/>
+    <col min="10" max="10" width="8.7109375" hidden="false" customWidth="true"/>
+    <col min="11" max="11" width="8.140625" hidden="false" customWidth="true"/>
+    <col min="12" max="12" width="8.28515625" hidden="false" customWidth="true"/>
+    <col min="13" max="13" width="9.140625" hidden="false" customWidth="true"/>
+    <col min="14" max="14" width="9.140625" hidden="false" customWidth="true"/>
+    <col min="15" max="15" width="8.28515625" hidden="false" customWidth="true"/>
+    <col min="16" max="16" width="10.0" hidden="false" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" hidden="false" customWidth="true"/>
+    <col min="18" max="18" width="9.5703125" hidden="false" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" hidden="false" customWidth="true"/>
+    <col min="20" max="20" width="19.28515625" hidden="false" customWidth="true"/>
+    <col min="21" max="21" width="34.42578125" hidden="false" customWidth="true"/>
+    <col min="22" max="22" width="8.0" hidden="false" customWidth="false"/>
+    <col min="23" max="23" width="18.85546875" hidden="false" customWidth="true"/>
+    <col min="24" max="24" width="29.7109375" hidden="false" customWidth="true"/>
+    <col min="25" max="25" width="8.0" hidden="false" customWidth="false"/>
+    <col min="26" max="26" width="8.0" hidden="false" customWidth="false"/>
+    <col min="27" max="27" width="14.7109375" hidden="false" customWidth="true"/>
+    <col min="28" max="28" width="8.0" hidden="false" customWidth="false"/>
+    <col min="29" max="29" width="8.0" hidden="false" customWidth="false"/>
+    <col min="30" max="30" width="8.0" hidden="false" customWidth="false"/>
+    <col min="31" max="31" width="8.0" hidden="false" customWidth="false"/>
+    <col min="32" max="32" width="8.0" hidden="false" customWidth="false"/>
+    <col min="33" max="33" width="8.0" hidden="false" customWidth="false"/>
+    <col min="34" max="34" width="8.0" hidden="false" customWidth="false"/>
+    <col min="35" max="35" width="8.0" hidden="false" customWidth="false"/>
+    <col min="36" max="36" width="8.0" hidden="false" customWidth="false"/>
+    <col min="37" max="37" width="8.0" hidden="false" customWidth="false"/>
+    <col min="38" max="38" width="8.0" hidden="false" customWidth="false"/>
+    <col min="39" max="39" width="8.0" hidden="false" customWidth="false"/>
+    <col min="40" max="40" width="8.0" hidden="false" customWidth="false"/>
+    <col min="41" max="41" width="8.0" hidden="false" customWidth="false"/>
+    <col min="42" max="42" width="8.0" hidden="false" customWidth="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="42.0" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +2285,7 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2"/>
+      <c r="AB1" s="1"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
@@ -1361,87 +2301,87 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>16</v>
-      </c>
-      <c r="R2" s="1">
-        <v>17</v>
-      </c>
-      <c r="S2" s="1">
-        <v>18</v>
-      </c>
-      <c r="T2" s="1">
-        <v>19</v>
-      </c>
-      <c r="U2" s="1">
-        <v>20</v>
-      </c>
-      <c r="V2" s="1">
-        <v>21</v>
-      </c>
-      <c r="W2" s="1">
-        <v>22</v>
-      </c>
-      <c r="X2" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>26</v>
+    <row r="2" ht="42.0" customHeight="true">
+      <c r="A2" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>26.0</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -1459,7 +2399,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="40.0" customHeight="true">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1467,8 +2407,8 @@
         <v>27</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>1</v>
+      <c r="D3" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -1483,11 +2423,11 @@
       <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
+      <c r="J3" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>3.0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1527,7 +2467,7 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
     </row>
-    <row r="4" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="40.0" customHeight="true">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1535,8 +2475,8 @@
         <v>27</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>1</v>
+      <c r="D4" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
@@ -1551,11 +2491,11 @@
       <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
+      <c r="J4" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>3.0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1595,7 +2535,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="40.0" customHeight="true">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1603,8 +2543,8 @@
         <v>27</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>1</v>
+      <c r="D5" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -1619,11 +2559,11 @@
       <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="1">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3</v>
+      <c r="J5" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3.0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1663,7 +2603,7 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:42" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="56.0" customHeight="true">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1671,30 +2611,30 @@
         <v>40</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>2</v>
+      <c r="D6" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="1">
-        <v>9</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>3.0</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1702,29 +2642,17 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -1741,7 +2669,7 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
     </row>
-    <row r="7" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="56.0" customHeight="true">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1749,48 +2677,60 @@
         <v>48</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="Y7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -1807,7 +2747,7 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="30.0" customHeight="true">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1815,31 +2755,33 @@
         <v>55</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>-1.0</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
+      <c r="N8" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1847,7 +2789,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -1871,43 +2813,47 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="40.0" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>3</v>
+      <c r="D9" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>1.0</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -1931,49 +2877,43 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:42" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" ht="40.0" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-1</v>
-      </c>
+      <c r="D10" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -1997,39 +2937,41 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42" ht="33" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>-1.0</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
+      <c r="N11" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2037,7 +2979,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -2061,53 +3003,49 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>0</v>
+      <c r="D12" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="2">
-        <v>4</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="N12" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>1.0</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="T12" s="2"/>
       <c r="U12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -2129,7 +3067,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="30.0" customHeight="true">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2137,8 +3075,8 @@
         <v>72</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>0</v>
+      <c r="D13" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -2147,17 +3085,17 @@
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>69</v>
+      <c r="H13" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="2">
-        <v>4</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2</v>
+      <c r="J13" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>2.0</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2168,10 +3106,10 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>34</v>
@@ -2197,16 +3135,16 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42" ht="33" x14ac:dyDescent="0.2">
+    <row r="14" ht="40.0" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>0</v>
+      <c r="D14" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -2215,17 +3153,17 @@
       <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>69</v>
+      <c r="H14" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="2">
-        <v>4</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2</v>
+      <c r="J14" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>2.0</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2236,10 +3174,10 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>34</v>
@@ -2265,49 +3203,53 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>1</v>
+      <c r="D15" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <v>5</v>
-      </c>
-      <c r="M15" s="2">
-        <v>3</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="T15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="U15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V15" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -2329,51 +3271,47 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:42" ht="33" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>1</v>
+      <c r="D16" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <v>5</v>
-      </c>
-      <c r="M16" s="2">
-        <v>3</v>
-      </c>
-      <c r="N16" s="2">
-        <v>2</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
+      <c r="L16" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -2397,39 +3335,43 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>2</v>
+      <c r="D17" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2">
-        <v>3</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
+      <c r="L17" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2437,7 +3379,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -2461,45 +3403,47 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="30.0" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-1</v>
-      </c>
+      <c r="D18" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="N18" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>1.0</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -2523,66 +3467,50 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="40.0" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>-1.0</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="2">
-        <v>6</v>
-      </c>
-      <c r="K19" s="2">
-        <v>3</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2">
-        <v>3</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="T19" s="2"/>
       <c r="U19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -2601,16 +3529,16 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="30.0" customHeight="true">
       <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>0</v>
+      <c r="D20" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -2620,33 +3548,47 @@
         <v>29</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="2">
-        <v>6</v>
-      </c>
-      <c r="K20" s="2">
-        <v>3</v>
+      <c r="J20" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>1.0</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="T20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="U20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -2665,16 +3607,16 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="40.0" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>2</v>
+      <c r="D21" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
@@ -2684,47 +3626,33 @@
         <v>29</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="2">
-        <v>10</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
+      <c r="J21" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2">
-        <v>2</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="T21" s="2"/>
       <c r="U21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -2743,52 +3671,66 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="30.0" customHeight="true">
       <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>-1</v>
-      </c>
+      <c r="D22" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="N22" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>1.0</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -2807,7 +3749,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" ht="40.0" customHeight="true">
       <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
@@ -2815,56 +3757,44 @@
         <v>107</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>-1.0</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="2">
-        <v>30</v>
-      </c>
-      <c r="K23" s="2">
-        <v>10</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2">
-        <v>4</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="T23" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="U23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -2883,39 +3813,43 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>0</v>
+      <c r="D24" s="2" t="n">
+        <v>4.0</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>10.0</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2">
-        <v>4</v>
-      </c>
-      <c r="O24" s="2">
-        <v>2</v>
+      <c r="N24" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2923,12 +3857,20 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -2947,43 +3889,39 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="30.0" customHeight="true">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>1</v>
+      <c r="D25" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <v>2</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>3</v>
-      </c>
-      <c r="O25" s="2">
-        <v>2</v>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>2.0</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2991,7 +3929,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -3015,43 +3953,43 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="40.0" customHeight="true">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>1</v>
+      <c r="D26" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2">
-        <v>5</v>
-      </c>
-      <c r="M26" s="2">
-        <v>3</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <v>1</v>
+      <c r="L26" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>2.0</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -3059,7 +3997,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -3083,55 +4021,51 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="30.0" customHeight="true">
       <c r="A27" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>0</v>
+      <c r="D27" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="2">
-        <v>6</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2">
-        <v>-2</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2">
-        <v>1</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -3155,16 +4089,16 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="40.0" customHeight="true">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>1</v>
+      <c r="D28" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -3174,45 +4108,41 @@
         <v>29</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="2">
-        <v>5</v>
-      </c>
-      <c r="K28" s="2">
-        <v>2</v>
+      <c r="J28" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2">
-        <v>2</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T28" s="2"/>
       <c r="U28" s="1" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="V28" s="2"/>
-      <c r="W28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -3231,16 +4161,16 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="30.0" customHeight="true">
       <c r="A29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>1</v>
+      <c r="D29" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -3250,38 +4180,38 @@
         <v>29</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="2">
-        <v>6</v>
-      </c>
-      <c r="K29" s="2">
-        <v>3</v>
+      <c r="J29" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>2.0</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2">
-        <v>3</v>
-      </c>
-      <c r="O29" s="2">
-        <v>1</v>
+      <c r="N29" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>132</v>
@@ -3307,7 +4237,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="30" ht="40.0" customHeight="true">
       <c r="A30" s="1" t="s">
         <v>134</v>
       </c>
@@ -3315,8 +4245,8 @@
         <v>135</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>3</v>
+      <c r="D30" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -3325,25 +4255,25 @@
       <c r="G30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>51</v>
+      <c r="H30" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="2">
-        <v>16</v>
-      </c>
-      <c r="K30" s="2">
-        <v>8</v>
+      <c r="J30" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2">
-        <v>99</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
+      <c r="N30" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -3357,13 +4287,13 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>136</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -3383,52 +4313,64 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42" ht="33" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>3</v>
+      <c r="D31" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>8.0</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="2">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2">
-        <v>1</v>
+      <c r="N31" s="2" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>0.0</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="T31" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="U31" s="1" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
+      <c r="W31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
@@ -3447,51 +4389,47 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <v>3</v>
+      <c r="D32" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <v>-6</v>
-      </c>
-      <c r="S32" s="2">
-        <v>-4</v>
-      </c>
+      <c r="N32" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -3515,49 +4453,51 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" ht="33" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>-1</v>
-      </c>
+      <c r="D33" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2">
-        <v>2</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>-6.0</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>-4.0</v>
+      </c>
       <c r="T33" s="2"/>
       <c r="U33" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -3581,28 +4521,50 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="D34" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="N34" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="1"/>
+      <c r="U34" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -3625,8 +4587,8 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+    <row r="35">
+      <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3646,7 +4608,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="U35" s="1"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -3669,7 +4631,7 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3713,7 +4675,7 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3757,7 +4719,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3801,7 +4763,7 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3845,7 +4807,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3889,7 +4851,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3933,7 +4895,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3977,7 +4939,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4021,7 +4983,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4065,7 +5027,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4109,7 +5071,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4153,7 +5115,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4197,7 +5159,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4241,7 +5203,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4285,7 +5247,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4329,7 +5291,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4373,7 +5335,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4417,7 +5379,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4461,7 +5423,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4505,7 +5467,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4549,7 +5511,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4593,7 +5555,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4637,7 +5599,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4681,7 +5643,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4725,7 +5687,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4769,7 +5731,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4813,7 +5775,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4857,7 +5819,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4901,7 +5863,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4945,7 +5907,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4989,7 +5951,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5033,7 +5995,7 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5077,7 +6039,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -5121,7 +6083,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5165,7 +6127,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5209,7 +6171,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5253,7 +6215,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5297,7 +6259,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5341,7 +6303,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5385,7 +6347,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5429,7 +6391,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5473,7 +6435,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
     </row>
-    <row r="77" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5517,7 +6479,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5561,7 +6523,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
     </row>
-    <row r="79" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5605,7 +6567,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
     </row>
-    <row r="80" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5649,7 +6611,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
     </row>
-    <row r="81" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5693,7 +6655,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
     </row>
-    <row r="82" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5737,7 +6699,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
     </row>
-    <row r="83" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5781,7 +6743,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
     </row>
-    <row r="84" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5825,7 +6787,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
     </row>
-    <row r="85" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5869,7 +6831,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
     </row>
-    <row r="86" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5913,7 +6875,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
     </row>
-    <row r="87" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5957,7 +6919,7 @@
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
     </row>
-    <row r="88" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6001,7 +6963,7 @@
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
     </row>
-    <row r="89" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6045,7 +7007,7 @@
       <c r="AO89" s="2"/>
       <c r="AP89" s="2"/>
     </row>
-    <row r="90" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6089,7 +7051,7 @@
       <c r="AO90" s="2"/>
       <c r="AP90" s="2"/>
     </row>
-    <row r="91" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6133,7 +7095,7 @@
       <c r="AO91" s="2"/>
       <c r="AP91" s="2"/>
     </row>
-    <row r="92" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6177,7 +7139,7 @@
       <c r="AO92" s="2"/>
       <c r="AP92" s="2"/>
     </row>
-    <row r="93" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6221,7 +7183,7 @@
       <c r="AO93" s="2"/>
       <c r="AP93" s="2"/>
     </row>
-    <row r="94" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6265,7 +7227,7 @@
       <c r="AO94" s="2"/>
       <c r="AP94" s="2"/>
     </row>
-    <row r="95" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6309,7 +7271,7 @@
       <c r="AO95" s="2"/>
       <c r="AP95" s="2"/>
     </row>
-    <row r="96" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6353,7 +7315,7 @@
       <c r="AO96" s="2"/>
       <c r="AP96" s="2"/>
     </row>
-    <row r="97" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6397,7 +7359,7 @@
       <c r="AO97" s="2"/>
       <c r="AP97" s="2"/>
     </row>
-    <row r="98" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6441,7 +7403,7 @@
       <c r="AO98" s="2"/>
       <c r="AP98" s="2"/>
     </row>
-    <row r="99" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6485,7 +7447,7 @@
       <c r="AO99" s="2"/>
       <c r="AP99" s="2"/>
     </row>
-    <row r="100" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6529,7 +7491,7 @@
       <c r="AO100" s="2"/>
       <c r="AP100" s="2"/>
     </row>
-    <row r="101" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6573,7 +7535,7 @@
       <c r="AO101" s="2"/>
       <c r="AP101" s="2"/>
     </row>
-    <row r="102" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6617,7 +7579,7 @@
       <c r="AO102" s="2"/>
       <c r="AP102" s="2"/>
     </row>
-    <row r="103" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6661,7 +7623,7 @@
       <c r="AO103" s="2"/>
       <c r="AP103" s="2"/>
     </row>
-    <row r="104" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6705,7 +7667,7 @@
       <c r="AO104" s="2"/>
       <c r="AP104" s="2"/>
     </row>
-    <row r="105" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6749,7 +7711,7 @@
       <c r="AO105" s="2"/>
       <c r="AP105" s="2"/>
     </row>
-    <row r="106" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6793,7 +7755,7 @@
       <c r="AO106" s="2"/>
       <c r="AP106" s="2"/>
     </row>
-    <row r="107" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6837,7 +7799,7 @@
       <c r="AO107" s="2"/>
       <c r="AP107" s="2"/>
     </row>
-    <row r="108" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6881,7 +7843,7 @@
       <c r="AO108" s="2"/>
       <c r="AP108" s="2"/>
     </row>
-    <row r="109" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6925,7 +7887,7 @@
       <c r="AO109" s="2"/>
       <c r="AP109" s="2"/>
     </row>
-    <row r="110" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6969,7 +7931,7 @@
       <c r="AO110" s="2"/>
       <c r="AP110" s="2"/>
     </row>
-    <row r="111" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7013,7 +7975,7 @@
       <c r="AO111" s="2"/>
       <c r="AP111" s="2"/>
     </row>
-    <row r="112" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7057,7 +8019,7 @@
       <c r="AO112" s="2"/>
       <c r="AP112" s="2"/>
     </row>
-    <row r="113" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7101,7 +8063,7 @@
       <c r="AO113" s="2"/>
       <c r="AP113" s="2"/>
     </row>
-    <row r="114" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -7145,7 +8107,7 @@
       <c r="AO114" s="2"/>
       <c r="AP114" s="2"/>
     </row>
-    <row r="115" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7189,7 +8151,7 @@
       <c r="AO115" s="2"/>
       <c r="AP115" s="2"/>
     </row>
-    <row r="116" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7233,7 +8195,7 @@
       <c r="AO116" s="2"/>
       <c r="AP116" s="2"/>
     </row>
-    <row r="117" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7277,7 +8239,7 @@
       <c r="AO117" s="2"/>
       <c r="AP117" s="2"/>
     </row>
-    <row r="118" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7321,7 +8283,7 @@
       <c r="AO118" s="2"/>
       <c r="AP118" s="2"/>
     </row>
-    <row r="119" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -7365,7 +8327,7 @@
       <c r="AO119" s="2"/>
       <c r="AP119" s="2"/>
     </row>
-    <row r="120" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7409,7 +8371,7 @@
       <c r="AO120" s="2"/>
       <c r="AP120" s="2"/>
     </row>
-    <row r="121" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7453,7 +8415,7 @@
       <c r="AO121" s="2"/>
       <c r="AP121" s="2"/>
     </row>
-    <row r="122" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7497,7 +8459,7 @@
       <c r="AO122" s="2"/>
       <c r="AP122" s="2"/>
     </row>
-    <row r="123" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7541,7 +8503,7 @@
       <c r="AO123" s="2"/>
       <c r="AP123" s="2"/>
     </row>
-    <row r="124" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7585,7 +8547,7 @@
       <c r="AO124" s="2"/>
       <c r="AP124" s="2"/>
     </row>
-    <row r="125" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7629,7 +8591,7 @@
       <c r="AO125" s="2"/>
       <c r="AP125" s="2"/>
     </row>
-    <row r="126" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7673,7 +8635,7 @@
       <c r="AO126" s="2"/>
       <c r="AP126" s="2"/>
     </row>
-    <row r="127" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7717,7 +8679,7 @@
       <c r="AO127" s="2"/>
       <c r="AP127" s="2"/>
     </row>
-    <row r="128" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7761,7 +8723,7 @@
       <c r="AO128" s="2"/>
       <c r="AP128" s="2"/>
     </row>
-    <row r="129" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7805,7 +8767,7 @@
       <c r="AO129" s="2"/>
       <c r="AP129" s="2"/>
     </row>
-    <row r="130" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7849,7 +8811,7 @@
       <c r="AO130" s="2"/>
       <c r="AP130" s="2"/>
     </row>
-    <row r="131" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7893,7 +8855,7 @@
       <c r="AO131" s="2"/>
       <c r="AP131" s="2"/>
     </row>
-    <row r="132" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7937,7 +8899,7 @@
       <c r="AO132" s="2"/>
       <c r="AP132" s="2"/>
     </row>
-    <row r="133" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7981,7 +8943,7 @@
       <c r="AO133" s="2"/>
       <c r="AP133" s="2"/>
     </row>
-    <row r="134" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -8025,7 +8987,7 @@
       <c r="AO134" s="2"/>
       <c r="AP134" s="2"/>
     </row>
-    <row r="135" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8069,7 +9031,7 @@
       <c r="AO135" s="2"/>
       <c r="AP135" s="2"/>
     </row>
-    <row r="136" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8113,7 +9075,7 @@
       <c r="AO136" s="2"/>
       <c r="AP136" s="2"/>
     </row>
-    <row r="137" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8157,7 +9119,7 @@
       <c r="AO137" s="2"/>
       <c r="AP137" s="2"/>
     </row>
-    <row r="138" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8201,7 +9163,7 @@
       <c r="AO138" s="2"/>
       <c r="AP138" s="2"/>
     </row>
-    <row r="139" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8245,7 +9207,7 @@
       <c r="AO139" s="2"/>
       <c r="AP139" s="2"/>
     </row>
-    <row r="140" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8289,7 +9251,7 @@
       <c r="AO140" s="2"/>
       <c r="AP140" s="2"/>
     </row>
-    <row r="141" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8333,7 +9295,7 @@
       <c r="AO141" s="2"/>
       <c r="AP141" s="2"/>
     </row>
-    <row r="142" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8377,7 +9339,7 @@
       <c r="AO142" s="2"/>
       <c r="AP142" s="2"/>
     </row>
-    <row r="143" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8421,7 +9383,7 @@
       <c r="AO143" s="2"/>
       <c r="AP143" s="2"/>
     </row>
-    <row r="144" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8465,7 +9427,7 @@
       <c r="AO144" s="2"/>
       <c r="AP144" s="2"/>
     </row>
-    <row r="145" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8509,7 +9471,7 @@
       <c r="AO145" s="2"/>
       <c r="AP145" s="2"/>
     </row>
-    <row r="146" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8553,7 +9515,7 @@
       <c r="AO146" s="2"/>
       <c r="AP146" s="2"/>
     </row>
-    <row r="147" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8597,7 +9559,7 @@
       <c r="AO147" s="2"/>
       <c r="AP147" s="2"/>
     </row>
-    <row r="148" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8641,7 +9603,7 @@
       <c r="AO148" s="2"/>
       <c r="AP148" s="2"/>
     </row>
-    <row r="149" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8685,7 +9647,7 @@
       <c r="AO149" s="2"/>
       <c r="AP149" s="2"/>
     </row>
-    <row r="150" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8729,7 +9691,7 @@
       <c r="AO150" s="2"/>
       <c r="AP150" s="2"/>
     </row>
-    <row r="151" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8773,7 +9735,7 @@
       <c r="AO151" s="2"/>
       <c r="AP151" s="2"/>
     </row>
-    <row r="152" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8817,7 +9779,7 @@
       <c r="AO152" s="2"/>
       <c r="AP152" s="2"/>
     </row>
-    <row r="153" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8861,7 +9823,7 @@
       <c r="AO153" s="2"/>
       <c r="AP153" s="2"/>
     </row>
-    <row r="154" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8905,7 +9867,7 @@
       <c r="AO154" s="2"/>
       <c r="AP154" s="2"/>
     </row>
-    <row r="155" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8949,7 +9911,7 @@
       <c r="AO155" s="2"/>
       <c r="AP155" s="2"/>
     </row>
-    <row r="156" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8993,7 +9955,7 @@
       <c r="AO156" s="2"/>
       <c r="AP156" s="2"/>
     </row>
-    <row r="157" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -9037,7 +9999,7 @@
       <c r="AO157" s="2"/>
       <c r="AP157" s="2"/>
     </row>
-    <row r="158" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9081,7 +10043,7 @@
       <c r="AO158" s="2"/>
       <c r="AP158" s="2"/>
     </row>
-    <row r="159" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9125,7 +10087,7 @@
       <c r="AO159" s="2"/>
       <c r="AP159" s="2"/>
     </row>
-    <row r="160" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9169,7 +10131,7 @@
       <c r="AO160" s="2"/>
       <c r="AP160" s="2"/>
     </row>
-    <row r="161" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9213,7 +10175,7 @@
       <c r="AO161" s="2"/>
       <c r="AP161" s="2"/>
     </row>
-    <row r="162" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9257,7 +10219,7 @@
       <c r="AO162" s="2"/>
       <c r="AP162" s="2"/>
     </row>
-    <row r="163" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9301,7 +10263,7 @@
       <c r="AO163" s="2"/>
       <c r="AP163" s="2"/>
     </row>
-    <row r="164" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9345,7 +10307,7 @@
       <c r="AO164" s="2"/>
       <c r="AP164" s="2"/>
     </row>
-    <row r="165" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9389,7 +10351,7 @@
       <c r="AO165" s="2"/>
       <c r="AP165" s="2"/>
     </row>
-    <row r="166" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9433,7 +10395,7 @@
       <c r="AO166" s="2"/>
       <c r="AP166" s="2"/>
     </row>
-    <row r="167" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9477,7 +10439,7 @@
       <c r="AO167" s="2"/>
       <c r="AP167" s="2"/>
     </row>
-    <row r="168" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9521,7 +10483,7 @@
       <c r="AO168" s="2"/>
       <c r="AP168" s="2"/>
     </row>
-    <row r="169" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9565,7 +10527,7 @@
       <c r="AO169" s="2"/>
       <c r="AP169" s="2"/>
     </row>
-    <row r="170" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9609,7 +10571,7 @@
       <c r="AO170" s="2"/>
       <c r="AP170" s="2"/>
     </row>
-    <row r="171" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9653,7 +10615,7 @@
       <c r="AO171" s="2"/>
       <c r="AP171" s="2"/>
     </row>
-    <row r="172" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9697,7 +10659,7 @@
       <c r="AO172" s="2"/>
       <c r="AP172" s="2"/>
     </row>
-    <row r="173" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9741,7 +10703,7 @@
       <c r="AO173" s="2"/>
       <c r="AP173" s="2"/>
     </row>
-    <row r="174" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9785,7 +10747,7 @@
       <c r="AO174" s="2"/>
       <c r="AP174" s="2"/>
     </row>
-    <row r="175" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9829,7 +10791,7 @@
       <c r="AO175" s="2"/>
       <c r="AP175" s="2"/>
     </row>
-    <row r="176" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9873,7 +10835,7 @@
       <c r="AO176" s="2"/>
       <c r="AP176" s="2"/>
     </row>
-    <row r="177" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9917,7 +10879,7 @@
       <c r="AO177" s="2"/>
       <c r="AP177" s="2"/>
     </row>
-    <row r="178" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9961,7 +10923,7 @@
       <c r="AO178" s="2"/>
       <c r="AP178" s="2"/>
     </row>
-    <row r="179" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -10005,7 +10967,7 @@
       <c r="AO179" s="2"/>
       <c r="AP179" s="2"/>
     </row>
-    <row r="180" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -10049,7 +11011,7 @@
       <c r="AO180" s="2"/>
       <c r="AP180" s="2"/>
     </row>
-    <row r="181" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -10093,7 +11055,7 @@
       <c r="AO181" s="2"/>
       <c r="AP181" s="2"/>
     </row>
-    <row r="182" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -10137,7 +11099,7 @@
       <c r="AO182" s="2"/>
       <c r="AP182" s="2"/>
     </row>
-    <row r="183" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -10181,7 +11143,7 @@
       <c r="AO183" s="2"/>
       <c r="AP183" s="2"/>
     </row>
-    <row r="184" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -10225,7 +11187,7 @@
       <c r="AO184" s="2"/>
       <c r="AP184" s="2"/>
     </row>
-    <row r="185" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10269,7 +11231,7 @@
       <c r="AO185" s="2"/>
       <c r="AP185" s="2"/>
     </row>
-    <row r="186" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10313,7 +11275,7 @@
       <c r="AO186" s="2"/>
       <c r="AP186" s="2"/>
     </row>
-    <row r="187" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10357,7 +11319,7 @@
       <c r="AO187" s="2"/>
       <c r="AP187" s="2"/>
     </row>
-    <row r="188" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10401,7 +11363,7 @@
       <c r="AO188" s="2"/>
       <c r="AP188" s="2"/>
     </row>
-    <row r="189" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10445,7 +11407,7 @@
       <c r="AO189" s="2"/>
       <c r="AP189" s="2"/>
     </row>
-    <row r="190" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10489,7 +11451,7 @@
       <c r="AO190" s="2"/>
       <c r="AP190" s="2"/>
     </row>
-    <row r="191" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10533,7 +11495,7 @@
       <c r="AO191" s="2"/>
       <c r="AP191" s="2"/>
     </row>
-    <row r="192" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10577,7 +11539,7 @@
       <c r="AO192" s="2"/>
       <c r="AP192" s="2"/>
     </row>
-    <row r="193" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10621,7 +11583,7 @@
       <c r="AO193" s="2"/>
       <c r="AP193" s="2"/>
     </row>
-    <row r="194" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10665,7 +11627,7 @@
       <c r="AO194" s="2"/>
       <c r="AP194" s="2"/>
     </row>
-    <row r="195" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10709,7 +11671,7 @@
       <c r="AO195" s="2"/>
       <c r="AP195" s="2"/>
     </row>
-    <row r="196" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10753,7 +11715,7 @@
       <c r="AO196" s="2"/>
       <c r="AP196" s="2"/>
     </row>
-    <row r="197" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10797,7 +11759,7 @@
       <c r="AO197" s="2"/>
       <c r="AP197" s="2"/>
     </row>
-    <row r="198" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10841,7 +11803,7 @@
       <c r="AO198" s="2"/>
       <c r="AP198" s="2"/>
     </row>
-    <row r="199" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10885,7 +11847,7 @@
       <c r="AO199" s="2"/>
       <c r="AP199" s="2"/>
     </row>
-    <row r="200" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10929,7 +11891,7 @@
       <c r="AO200" s="2"/>
       <c r="AP200" s="2"/>
     </row>
-    <row r="201" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10973,7 +11935,7 @@
       <c r="AO201" s="2"/>
       <c r="AP201" s="2"/>
     </row>
-    <row r="202" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11017,7 +11979,7 @@
       <c r="AO202" s="2"/>
       <c r="AP202" s="2"/>
     </row>
-    <row r="203" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11061,7 +12023,7 @@
       <c r="AO203" s="2"/>
       <c r="AP203" s="2"/>
     </row>
-    <row r="204" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11105,7 +12067,7 @@
       <c r="AO204" s="2"/>
       <c r="AP204" s="2"/>
     </row>
-    <row r="205" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11149,33 +12111,76 @@
       <c r="AO205" s="2"/>
       <c r="AP205" s="2"/>
     </row>
+    <row r="206">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2"/>
+      <c r="V206" s="2"/>
+      <c r="W206" s="2"/>
+      <c r="X206" s="2"/>
+      <c r="Y206" s="2"/>
+      <c r="Z206" s="2"/>
+      <c r="AA206" s="2"/>
+      <c r="AB206" s="2"/>
+      <c r="AC206" s="2"/>
+      <c r="AD206" s="2"/>
+      <c r="AE206" s="2"/>
+      <c r="AF206" s="2"/>
+      <c r="AG206" s="2"/>
+      <c r="AH206" s="2"/>
+      <c r="AI206" s="2"/>
+      <c r="AJ206" s="2"/>
+      <c r="AK206" s="2"/>
+      <c r="AL206" s="2"/>
+      <c r="AM206" s="2"/>
+      <c r="AN206" s="2"/>
+      <c r="AO206" s="2"/>
+      <c r="AP206" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="true"/>
   <dataValidations count="7">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="H3:H205" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="H3:H206">
       <formula1>"BASIC,SPECIAL,COMMON,UNCOMMON,RARE,CURSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" sqref="I54:I205" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" sqref="I55:I206">
       <formula1>"ENEMY,ALL_ENEMY,SELF,NONE,SELF_AND_ENEMY,ALL"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="I3:I53" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="I3:I54">
       <formula1>"ENEMY,ALL_ENEMY,SELF,NONE,SELF_AND_ENEMY,ALL"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="Z3:Z20 Z22:Z205" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="Z3:Z5 Z7:Z21 Z23:Z206">
       <formula1>"BLUNT_LIGHT,BLUNT_HEAVY,SLASH_DIAGONAL,SMASH,SLASH_HEAVY,SLASH_HORIZONTAL,SLASH_VERTICAL,NONE,FIRE,POISON,SHIELD,LIGHTNING"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="G3:G205" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="G3:G206">
       <formula1>"ATTACK,SKILL,POWER,STATUS,CURSE;"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="F101:F205" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="F102:F206">
       <formula1>"拳掌,刀剑,御射,奇门,通用"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="F3:F100" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="请选择下拉列表中的选项。" sqref="F3:F101">
       <formula1>"QUANZHANG,DAOJIAN,YUSHE,QIMENG,TONGYONG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/classes/data/太吾尖塔.xlsx
+++ b/target/classes/data/太吾尖塔.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -143,28 +143,28 @@
     <t>SKILL</t>
   </si>
   <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>移*1</t>
+  </si>
+  <si>
+    <t>获得 B 点格挡。</t>
+  </si>
+  <si>
+    <t>大拙手</t>
+  </si>
+  <si>
+    <t>DaZhuoShou</t>
+  </si>
+  <si>
     <t>RARE</t>
   </si>
   <si>
-    <t>SELF</t>
-  </si>
-  <si>
-    <t>移*1</t>
-  </si>
-  <si>
-    <t>获得 B 点格挡。</t>
-  </si>
-  <si>
-    <t>大拙手</t>
-  </si>
-  <si>
-    <t>DaZhuoShou</t>
-  </si>
-  <si>
     <t>崩*5</t>
   </si>
   <si>
-    <t>造成 D1 + D2 + D3 + D4 点伤害，若完全被对方格挡，立刻再次释放大拙手攻击敌人，且威力提升50%，直到造成伤害为止。</t>
+    <t>造成 S1 + S2 + S3 + S4 点伤害，若完全被对方格挡，立刻再次释放大拙手攻击敌人，且威力提升50%，直到造成伤害为止。</t>
   </si>
   <si>
     <t>0|0|10|10</t>
@@ -302,7 +302,7 @@
     <t>拿*2</t>
   </si>
   <si>
-    <t>造成 D1 + D2 + D3 + D4 点伤害，获得 M 层卸力。</t>
+    <t>造成 S1 + S2 + S3 + S4 点伤害，获得 M 层卸力。</t>
   </si>
   <si>
     <t>3|5|2|10</t>
@@ -323,13 +323,10 @@
     <t>XuanGongShenQuan</t>
   </si>
   <si>
-    <t>拿,1</t>
-  </si>
-  <si>
     <t>拿*3</t>
   </si>
   <si>
-    <t>造成 D1 + D2 + D3 + D4 点伤害，最后一段伤害额外附加当前卸力层数 M 倍的伤害。</t>
+    <t>造成 S1 + S2 + S3 + S4 点伤害，最后一段伤害额外附加当前卸力层数 M 倍的伤害。</t>
   </si>
   <si>
     <t>三华聚顶</t>
@@ -359,7 +356,7 @@
     <t>拿*2&amp;点*2&amp;崩*2</t>
   </si>
   <si>
-    <t>对所有敌人造成 D1 + D2 + D3 + D4 点伤害。</t>
+    <t>对所有敌人造成 S1 + S2 + S3 + S4 点伤害。</t>
   </si>
   <si>
     <t>2|8|0|10</t>
@@ -410,7 +407,7 @@
     <t>点*2</t>
   </si>
   <si>
-    <t>造成 D1 + D2 + D3 + D4 点伤害，附加 M 层虚弱。</t>
+    <t>造成 S1 + S2 + S3 + S4 点伤害，附加 M 层虚弱。</t>
   </si>
   <si>
     <t>4|2|4|10</t>
@@ -422,7 +419,7 @@
     <t>SuoHouYinShou</t>
   </si>
   <si>
-    <t>造成 D1 + D2 + D3 + D4 点伤害。本回合每打出一张牌，对目标造成 M 点伤害。</t>
+    <t>造成 S1 + S2 + S3 + S4 点伤害。本回合每打出一张牌，对目标造成 M 点伤害。</t>
   </si>
   <si>
     <t>4|3|3|10</t>
@@ -434,7 +431,7 @@
     <t>SanZhiDuoYinZhua</t>
   </si>
   <si>
-    <t>造成 D1 + D2 + D3 + D4 点伤害，附加 M 层易伤并击晕一回合。消耗。</t>
+    <t>造成 S1 + S2 + S3 + S4 点伤害，附加 M 层易伤并击晕一回合。消耗。</t>
   </si>
   <si>
     <t>移魂大法</t>
@@ -1825,18 +1822,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
     <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="attachment-1631190020560-dd9d213092818080" descr="attachment-1631190020560-dd9d213092818080"/>
+        <xdr:cNvPr id="1" name="attachment-1631190035646-e14fc2ef71609b4b" descr="attachment-1631190035646-e14fc2ef71609b4b"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1862,13 +1859,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
     <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="attachment-1631192947879-92f2c94add253548" descr="attachment-1631192947879-92f2c94add253548"/>
+        <xdr:cNvPr id="1" name="attachment-1631190048398-416111b891f295e2" descr="attachment-1631190048398-416111b891f295e2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1894,13 +1891,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="360000" cy="381000"/>
+    <xdr:ext cx="360000" cy="533400"/>
     <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="attachment-1631192990352-3f414e449418e62f" descr="attachment-1631192990352-3f414e449418e62f"/>
+        <xdr:cNvPr id="1" name="attachment-1631169939534-e5b91541e745fb8d" descr="attachment-1631169939534-e5b91541e745fb8d"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1912,7 +1909,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="0">
-          <a:ext cx="360000" cy="381000"/>
+          <a:ext cx="360000" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,13 +1923,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
     <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="attachment-1631192963683-d029256278ba32e6" descr="attachment-1631192963683-d029256278ba32e6"/>
+        <xdr:cNvPr id="1" name="attachment-1631190064925-900f88ae6b4f5f8d" descr="attachment-1631190064925-900f88ae6b4f5f8d"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1990,17 +1987,49 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
     <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="attachment-1631190064925-900f88ae6b4f5f8d" descr="attachment-1631190064925-900f88ae6b4f5f8d"/>
+        <xdr:cNvPr id="1" name="attachment-1631190020560-dd9d213092818080" descr="attachment-1631190020560-dd9d213092818080"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId6" r:link=""/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect l="0" t="0" r="0" b="0"/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0">
+          <a:ext cx="360000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360000" cy="381000"/>
+    <xdr:pic macro="">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="attachment-1631192947879-92f2c94add253548" descr="attachment-1631192947879-92f2c94add253548"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId7" r:link=""/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect l="0" t="0" r="0" b="0"/>
@@ -2032,38 +2061,6 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId7" r:link=""/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect l="0" t="0" r="0" b="0"/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="360000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360000" cy="381000"/>
-    <xdr:pic macro="">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="attachment-1631190035646-e14fc2ef71609b4b" descr="attachment-1631190035646-e14fc2ef71609b4b"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId8" r:link=""/>
         <a:srcRect/>
         <a:stretch>
@@ -2086,13 +2083,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="360000" cy="533400"/>
+    <xdr:ext cx="360000" cy="381000"/>
     <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="attachment-1631169939534-e5b91541e745fb8d" descr="attachment-1631169939534-e5b91541e745fb8d"/>
+        <xdr:cNvPr id="1" name="attachment-1631192963683-d029256278ba32e6" descr="attachment-1631192963683-d029256278ba32e6"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2104,7 +2101,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="0">
-          <a:ext cx="360000" cy="533400"/>
+          <a:ext cx="360000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2118,13 +2115,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360000" cy="381000"/>
     <xdr:pic macro="">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="attachment-1631190048398-416111b891f295e2" descr="attachment-1631190048398-416111b891f295e2"/>
+        <xdr:cNvPr id="1" name="attachment-1631192990352-3f414e449418e62f" descr="attachment-1631192990352-3f414e449418e62f"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2622,10 +2619,10 @@
         <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2642,10 +2639,10 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1"/>
@@ -2671,10 +2668,10 @@
     </row>
     <row r="7" ht="56.0" customHeight="true">
       <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="n">
@@ -2688,7 +2685,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>31</v>
@@ -2771,7 +2768,7 @@
         <v>57</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2835,7 +2832,7 @@
         <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2896,10 +2893,10 @@
         <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2961,7 +2958,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3025,7 +3022,7 @@
         <v>57</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3293,7 +3290,7 @@
         <v>73</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -3357,7 +3354,7 @@
         <v>73</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -3422,10 +3419,10 @@
         <v>56</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3491,7 +3488,7 @@
         <v>57</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -3714,7 +3711,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>33</v>
@@ -3723,10 +3720,10 @@
         <v>52</v>
       </c>
       <c r="W22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>97</v>
@@ -3751,10 +3748,10 @@
     </row>
     <row r="23" ht="40.0" customHeight="true">
       <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="n">
@@ -3770,10 +3767,10 @@
         <v>42</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3786,10 +3783,10 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -3815,10 +3812,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="n">
@@ -3832,10 +3829,10 @@
         <v>29</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>30.0</v>
@@ -3857,19 +3854,19 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="W24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -3891,10 +3888,10 @@
     </row>
     <row r="25" ht="30.0" customHeight="true">
       <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="n">
@@ -3911,7 +3908,7 @@
         <v>57</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3929,7 +3926,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -3955,10 +3952,10 @@
     </row>
     <row r="26" ht="40.0" customHeight="true">
       <c r="A26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="n">
@@ -3975,7 +3972,7 @@
         <v>57</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3997,7 +3994,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -4023,10 +4020,10 @@
     </row>
     <row r="27" ht="30.0" customHeight="true">
       <c r="A27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="n">
@@ -4043,7 +4040,7 @@
         <v>73</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4065,7 +4062,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -4091,10 +4088,10 @@
     </row>
     <row r="28" ht="40.0" customHeight="true">
       <c r="A28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="n">
@@ -4137,7 +4134,7 @@
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -4163,10 +4160,10 @@
     </row>
     <row r="29" ht="30.0" customHeight="true">
       <c r="A29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="n">
@@ -4211,13 +4208,13 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="Y29" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -4239,10 +4236,10 @@
     </row>
     <row r="30" ht="40.0" customHeight="true">
       <c r="A30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="n">
@@ -4287,13 +4284,13 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y30" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -4315,10 +4312,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="n">
@@ -4363,13 +4360,13 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
@@ -4391,10 +4388,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="n">
@@ -4408,10 +4405,10 @@
         <v>42</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -4429,7 +4426,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -4455,10 +4452,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="n">
@@ -4472,10 +4469,10 @@
         <v>56</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -4497,7 +4494,7 @@
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -4523,10 +4520,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="n">
@@ -4545,7 +4542,7 @@
         <v>57</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -4563,7 +4560,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
